--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -10,12 +10,46 @@
     <sheet name="Product and Sprint Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Impediment List" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="M8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aufwand unerschätzt</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>Start</t>
   </si>
@@ -77,9 +111,6 @@
     <t>Parsing</t>
   </si>
   <si>
-    <t>Planning</t>
-  </si>
-  <si>
     <t>Einarbeitung</t>
   </si>
   <si>
@@ -146,9 +177,6 @@
     <t>in progress</t>
   </si>
   <si>
-    <t>planed</t>
-  </si>
-  <si>
     <t>Item / Sprint</t>
   </si>
   <si>
@@ -159,13 +187,28 @@
   </si>
   <si>
     <t>Item-Goal</t>
+  </si>
+  <si>
+    <t>canceled</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total Effort:</t>
+  </si>
+  <si>
+    <t>INITIAL</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +224,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +257,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -210,26 +284,281 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -530,466 +859,978 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="1.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2" style="15" customWidth="1"/>
+    <col min="2" max="2" width="1.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="46"/>
+    <col min="13" max="13" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="54"/>
+    <col min="17" max="18" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="5" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="5" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="L2" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="64">
+        <v>41967</v>
+      </c>
+      <c r="N2" s="65">
+        <v>41981</v>
+      </c>
+      <c r="O2" s="63">
+        <v>42051</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="39">
+        <f>L6+L11+L16+L20</f>
+        <v>40</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" ref="M3:R3" si="0">M6+M11+M16+M20</f>
+        <v>39</v>
+      </c>
+      <c r="N3" s="66">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O3" s="55">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="P3" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="5">
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
+        <v>41967</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="18">
+        <v>41967</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="41">
+        <f>SUM(L7:L10)</f>
+        <v>7</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" ref="M6:R6" si="1">SUM(M7:M10)</f>
+        <v>6</v>
+      </c>
+      <c r="N6" s="68">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="O2" s="5">
-        <v>3</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="O6" s="58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="19">
+        <v>41967</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="42">
+        <v>3</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="69">
+        <v>0</v>
+      </c>
+      <c r="O7" s="59">
+        <v>0</v>
+      </c>
+      <c r="P7" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="19">
+        <v>41967</v>
+      </c>
+      <c r="J8" s="11">
+        <v>2</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="42">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
         <v>4</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="N8" s="69">
+        <v>0</v>
+      </c>
+      <c r="O8" s="59">
+        <v>0</v>
+      </c>
+      <c r="P8" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="19">
+        <v>41967</v>
+      </c>
+      <c r="J9" s="11">
+        <v>3</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="42">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="69">
+        <v>0</v>
+      </c>
+      <c r="O9" s="59">
+        <v>0</v>
+      </c>
+      <c r="P9" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="20">
+        <v>41967</v>
+      </c>
+      <c r="J10" s="12">
         <v>5</v>
       </c>
-      <c r="R2" s="5">
+      <c r="K10" s="12"/>
+      <c r="L10" s="43">
+        <v>2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2</v>
+      </c>
+      <c r="N10" s="70">
+        <v>2</v>
+      </c>
+      <c r="O10" s="60">
+        <v>0</v>
+      </c>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="44">
+        <f>SUM(L12:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <f>SUM(M12:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="71">
+        <f>SUM(N12:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="61">
+        <f>SUM(O12:O15)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="52">
+        <f>SUM(P12:P15)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f>SUM(Q12:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="13">
+        <f>SUM(R12:R15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="14">
+        <v>4</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="22">
+        <v>41981</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="18">
+        <v>42051</v>
+      </c>
+      <c r="J16" s="10">
+        <v>4</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="L16" s="41">
+        <f>SUM(L17:L19)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="M16" s="10">
+        <f t="shared" ref="M16:R16" si="2">SUM(M17:M19)</f>
+        <v>6</v>
+      </c>
+      <c r="N16" s="68">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="58">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="P16" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="E17" s="74"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="20">
+        <v>42051</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="43">
+        <v>1</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1</v>
+      </c>
+      <c r="N17" s="70">
+        <v>1</v>
+      </c>
+      <c r="O17" s="60">
+        <v>0</v>
+      </c>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="20">
+        <v>42051</v>
+      </c>
+      <c r="J18" s="12">
+        <v>2</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="43">
+        <v>2</v>
+      </c>
+      <c r="M18" s="12">
+        <v>2</v>
+      </c>
+      <c r="N18" s="70">
+        <v>2</v>
+      </c>
+      <c r="O18" s="60">
+        <v>0</v>
+      </c>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="74"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="20">
+        <v>42051</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="43">
+        <v>3</v>
+      </c>
+      <c r="M19" s="12">
+        <v>3</v>
+      </c>
+      <c r="N19" s="70">
+        <v>3</v>
+      </c>
+      <c r="O19" s="60">
+        <v>3</v>
+      </c>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
         <v>4</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="E20" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="10">
+        <v>3</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="41">
+        <f>SUM(L21:L24)</f>
+        <v>27</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" ref="M20:R20" si="3">SUM(M21:M24)</f>
+        <v>27</v>
+      </c>
+      <c r="N20" s="68">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="O20" s="58">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P20" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="12">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="E21" s="74"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="12">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
-        <v>41967</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="3">
-        <v>41967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1">
-        <v>41967</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
+      <c r="K21" s="12"/>
+      <c r="L21" s="43">
+        <v>10</v>
+      </c>
+      <c r="M21" s="12">
+        <v>10</v>
+      </c>
+      <c r="N21" s="70">
+        <v>10</v>
+      </c>
+      <c r="O21" s="60">
+        <v>0</v>
+      </c>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1">
-        <v>41967</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="1">
-        <v>41967</v>
-      </c>
-      <c r="K8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
+      <c r="E22" s="74"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="12">
+        <v>2</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="43">
+        <v>10</v>
+      </c>
+      <c r="M22" s="12">
+        <v>10</v>
+      </c>
+      <c r="N22" s="70">
+        <v>10</v>
+      </c>
+      <c r="O22" s="60">
+        <v>10</v>
+      </c>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="12">
+        <v>3</v>
+      </c>
+      <c r="E23" s="74"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="12">
+        <v>3</v>
+      </c>
+      <c r="K23" s="12"/>
+      <c r="L23" s="43">
         <v>4</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="1">
-        <v>41967</v>
-      </c>
-      <c r="K9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14">
+      <c r="M23" s="12">
         <v>4</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6">
-        <v>2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>41981</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="N23" s="70">
         <v>4</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="O23" s="60">
+        <v>4</v>
+      </c>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="12">
+        <v>4</v>
+      </c>
+      <c r="E24" s="74"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20">
+      <c r="I24" s="12"/>
+      <c r="J24" s="12">
         <v>4</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22">
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="43">
+        <v>3</v>
+      </c>
+      <c r="M24" s="12">
+        <v>3</v>
+      </c>
+      <c r="N24" s="70">
+        <v>3</v>
+      </c>
+      <c r="O24" s="60">
+        <v>3</v>
+      </c>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="G5:G14"/>
-    <mergeCell ref="F15:F23"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E23"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="F6:F15"/>
+    <mergeCell ref="G6:G15"/>
+    <mergeCell ref="F16:F24"/>
+    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E20:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1018,6 +1859,26 @@
       </c>
       <c r="G1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="72" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Product and Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -545,6 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -863,7 +864,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,9 +882,9 @@
     <col min="11" max="11" width="12.42578125" style="15" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="46"/>
     <col min="13" max="13" width="10.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="73" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="74" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="54"/>
+    <col min="16" max="16" width="10.28515625" style="54" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="15"/>
   </cols>
   <sheetData>
@@ -926,16 +927,16 @@
       <c r="L2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="65">
         <v>41967</v>
       </c>
-      <c r="N2" s="65">
+      <c r="N2" s="66">
         <v>41981</v>
       </c>
       <c r="O2" s="63">
         <v>42051</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="64" t="s">
         <v>50</v>
       </c>
       <c r="Q2" s="8" t="s">
@@ -967,7 +968,7 @@
         <f t="shared" ref="M3:R3" si="0">M6+M11+M16+M20</f>
         <v>39</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="67">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1046,7 +1047,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="40"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="67"/>
+      <c r="N5" s="68"/>
       <c r="O5" s="57"/>
       <c r="P5" s="48"/>
       <c r="Q5" s="9"/>
@@ -1088,7 +1089,7 @@
         <f t="shared" ref="M6:R6" si="1">SUM(M7:M10)</f>
         <v>6</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="69">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -1137,7 +1138,7 @@
       <c r="M7" s="11">
         <v>0</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="70">
         <v>0</v>
       </c>
       <c r="O7" s="59">
@@ -1181,7 +1182,7 @@
       <c r="M8" s="11">
         <v>4</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="70">
         <v>0</v>
       </c>
       <c r="O8" s="59">
@@ -1225,7 +1226,7 @@
       <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="N9" s="69">
+      <c r="N9" s="70">
         <v>0</v>
       </c>
       <c r="O9" s="59">
@@ -1267,7 +1268,7 @@
       <c r="M10" s="12">
         <v>2</v>
       </c>
-      <c r="N10" s="70">
+      <c r="N10" s="71">
         <v>2</v>
       </c>
       <c r="O10" s="60">
@@ -1307,7 +1308,7 @@
         <f>SUM(M12:M15)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="72">
         <f>SUM(N12:N15)</f>
         <v>0</v>
       </c>
@@ -1351,7 +1352,7 @@
       <c r="L12" s="45"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
-      <c r="O12" s="75"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
@@ -1379,7 +1380,7 @@
       <c r="L13" s="45"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="75"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
@@ -1407,7 +1408,7 @@
       <c r="L14" s="45"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="75"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="53"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
@@ -1435,7 +1436,7 @@
       <c r="L15" s="45"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="75"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="53"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
@@ -1449,7 +1450,7 @@
       <c r="D16" s="10">
         <v>3</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="75" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="16">
@@ -1476,7 +1477,7 @@
         <f t="shared" ref="M16:R16" si="2">SUM(M17:M19)</f>
         <v>6</v>
       </c>
-      <c r="N16" s="68">
+      <c r="N16" s="69">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1506,7 +1507,7 @@
       <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="16"/>
       <c r="G17" s="22"/>
       <c r="H17" s="12" t="s">
@@ -1525,7 +1526,7 @@
       <c r="M17" s="12">
         <v>1</v>
       </c>
-      <c r="N17" s="70">
+      <c r="N17" s="71">
         <v>1</v>
       </c>
       <c r="O17" s="60">
@@ -1544,7 +1545,7 @@
       <c r="D18" s="12">
         <v>2</v>
       </c>
-      <c r="E18" s="74"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="16"/>
       <c r="G18" s="22"/>
       <c r="H18" s="12" t="s">
@@ -1563,7 +1564,7 @@
       <c r="M18" s="12">
         <v>2</v>
       </c>
-      <c r="N18" s="70">
+      <c r="N18" s="71">
         <v>2</v>
       </c>
       <c r="O18" s="60">
@@ -1582,7 +1583,7 @@
       <c r="D19" s="12">
         <v>3</v>
       </c>
-      <c r="E19" s="74"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="16"/>
       <c r="G19" s="22"/>
       <c r="H19" s="12" t="s">
@@ -1601,7 +1602,7 @@
       <c r="M19" s="12">
         <v>3</v>
       </c>
-      <c r="N19" s="70">
+      <c r="N19" s="71">
         <v>3</v>
       </c>
       <c r="O19" s="60">
@@ -1620,7 +1621,7 @@
       <c r="D20" s="10">
         <v>4</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="75" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="16"/>
@@ -1641,7 +1642,7 @@
         <f t="shared" ref="M20:R20" si="3">SUM(M21:M24)</f>
         <v>27</v>
       </c>
-      <c r="N20" s="68">
+      <c r="N20" s="69">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
@@ -1671,7 +1672,7 @@
       <c r="D21" s="12">
         <v>1</v>
       </c>
-      <c r="E21" s="74"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="16"/>
       <c r="G21" s="22"/>
       <c r="H21" s="12" t="s">
@@ -1688,7 +1689,7 @@
       <c r="M21" s="12">
         <v>10</v>
       </c>
-      <c r="N21" s="70">
+      <c r="N21" s="71">
         <v>10</v>
       </c>
       <c r="O21" s="60">
@@ -1707,7 +1708,7 @@
       <c r="D22" s="12">
         <v>2</v>
       </c>
-      <c r="E22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="16"/>
       <c r="G22" s="22"/>
       <c r="H22" s="12" t="s">
@@ -1724,7 +1725,7 @@
       <c r="M22" s="12">
         <v>10</v>
       </c>
-      <c r="N22" s="70">
+      <c r="N22" s="71">
         <v>10</v>
       </c>
       <c r="O22" s="60">
@@ -1743,7 +1744,7 @@
       <c r="D23" s="12">
         <v>3</v>
       </c>
-      <c r="E23" s="74"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="16"/>
       <c r="G23" s="22"/>
       <c r="H23" s="12" t="s">
@@ -1760,7 +1761,7 @@
       <c r="M23" s="12">
         <v>4</v>
       </c>
-      <c r="N23" s="70">
+      <c r="N23" s="71">
         <v>4</v>
       </c>
       <c r="O23" s="60">
@@ -1779,7 +1780,7 @@
       <c r="D24" s="12">
         <v>4</v>
       </c>
-      <c r="E24" s="74"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="16"/>
       <c r="G24" s="22"/>
       <c r="H24" s="12" t="s">
@@ -1796,7 +1797,7 @@
       <c r="M24" s="12">
         <v>3</v>
       </c>
-      <c r="N24" s="70">
+      <c r="N24" s="71">
         <v>3</v>
       </c>
       <c r="O24" s="60">
@@ -1862,22 +1863,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="73" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="73" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="73" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="73" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product and Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Start</t>
   </si>
@@ -130,21 +130,12 @@
     <t>Kommunikation via Raspberry</t>
   </si>
   <si>
-    <t>Hier noch die Blocker eintragen (aus den Daily scrum meetings)</t>
-  </si>
-  <si>
-    <t>Daily Scrum Meetings: Jeder sagt, was er gemacht hat, was er machen will und berichtet über mögliche Probleme oder Verbesserungsvorschläge</t>
-  </si>
-  <si>
     <t>Grundsetup Roboter</t>
   </si>
   <si>
     <t>Requierements -&gt; Items -&gt; Tasks</t>
   </si>
   <si>
-    <t>Projektplanung mit zwischenschritten Dokumentieren (wie für NeoCortex)</t>
-  </si>
-  <si>
     <t>finished</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>Item / Sprint</t>
   </si>
   <si>
-    <t>Sprint Goals innerhalb der Sprint-Doku deutlicher definieren, Diagramme anlegen</t>
-  </si>
-  <si>
     <t>Dokumentation</t>
   </si>
   <si>
@@ -179,6 +167,21 @@
   </si>
   <si>
     <t>Bewegungsablufe</t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>TZ / NW</t>
+  </si>
+  <si>
+    <t>TZ /NW</t>
+  </si>
+  <si>
+    <t>MT /NW</t>
   </si>
 </sst>
 </file>
@@ -215,7 +218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,12 +234,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,38 +415,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -457,10 +454,18 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,17 +502,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,18 +526,18 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -580,22 +576,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136215168"/>
-        <c:axId val="136229248"/>
+        <c:axId val="8412160"/>
+        <c:axId val="30762880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136215168"/>
+        <c:axId val="8412160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136229248"/>
+        <c:crossAx val="30762880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -603,18 +604,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136229248"/>
+        <c:axId val="30762880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136215168"/>
+        <c:crossAx val="8412160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -625,7 +630,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -643,10 +648,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -654,7 +659,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -693,22 +698,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136221056"/>
-        <c:axId val="136222592"/>
+        <c:axId val="69959680"/>
+        <c:axId val="69961600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136221056"/>
+        <c:axId val="69959680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136222592"/>
+        <c:crossAx val="69961600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -716,18 +726,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136222592"/>
+        <c:axId val="69961600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136221056"/>
+        <c:crossAx val="69959680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -738,7 +752,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -756,10 +770,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -767,7 +781,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -806,22 +820,27 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64633088"/>
-        <c:axId val="64634880"/>
+        <c:axId val="36701696"/>
+        <c:axId val="69947776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64633088"/>
+        <c:axId val="36701696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64634880"/>
+        <c:crossAx val="69947776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -829,18 +848,22 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64634880"/>
+        <c:axId val="69947776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64633088"/>
+        <c:crossAx val="36701696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -851,7 +874,129 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="136"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="36"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Product and Sprint Backlog'!$L$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="184632448"/>
+        <c:axId val="184657024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="184632448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184657024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184657024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="184632448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -879,7 +1024,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -911,7 +1056,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -932,18 +1077,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -955,6 +1100,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1252,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P8" sqref="L8:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,50 +1448,50 @@
     <col min="11" max="11" width="12.42578125" style="9" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="20"/>
     <col min="13" max="13" width="10.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="31" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M2" s="34">
         <v>41967</v>
@@ -1329,58 +1506,58 @@
         <v>42055</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="50"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="16">
+        <f>L6+L11+L15</f>
+        <v>40</v>
+      </c>
+      <c r="M3" s="5">
+        <f>M6+M11+M15</f>
         <v>39</v>
       </c>
-      <c r="L3" s="16" t="e">
-        <f>L6+#REF!+L11+L15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="5" t="e">
-        <f>M6+#REF!+M11+M15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N3" s="36" t="e">
-        <f>N6+#REF!+N11+N15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O3" s="26" t="e">
-        <f>O6+#REF!+O11+O15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P3" s="21" t="e">
-        <f>P6+#REF!+P11+P15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q3" s="5" t="e">
-        <f>Q6+#REF!+Q11+Q15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R3" s="5" t="e">
-        <f>R6+#REF!+R11+R15</f>
-        <v>#REF!</v>
+      <c r="N3" s="36">
+        <f>N6+N11+N15</f>
+        <v>35</v>
+      </c>
+      <c r="O3" s="26">
+        <f>O6+O11+O15</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="21">
+        <f>P6+P11+P15</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>Q6+Q11+Q15</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <f>R6+R11+R15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1388,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -1429,7 +1606,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -1445,23 +1622,23 @@
     <row r="6" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="E6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="41">
         <v>1</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="56">
         <v>41967</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I6" s="10">
         <v>41967</v>
@@ -1469,7 +1646,9 @@
       <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="L6" s="18">
         <f>SUM(L7:L10)</f>
         <v>7</v>
@@ -1508,11 +1687,11 @@
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="11">
         <v>41967</v>
@@ -1520,7 +1699,9 @@
       <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="L7" s="19">
         <v>3</v>
       </c>
@@ -1552,11 +1733,11 @@
       <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I8" s="11">
         <v>41967</v>
@@ -1564,7 +1745,9 @@
       <c r="J8" s="8">
         <v>2</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="L8" s="19">
         <v>1</v>
       </c>
@@ -1596,11 +1779,11 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I9" s="11">
         <v>41967</v>
@@ -1608,7 +1791,9 @@
       <c r="J9" s="8">
         <v>3</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="L9" s="19">
         <v>1</v>
       </c>
@@ -1638,11 +1823,11 @@
       <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I10" s="11">
         <v>41967</v>
@@ -1650,7 +1835,9 @@
       <c r="J10" s="8">
         <v>5</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="L10" s="19">
         <v>2</v>
       </c>
@@ -1676,17 +1863,17 @@
       <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="54">
+      <c r="E11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="41">
         <v>2</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="42">
         <v>41981</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="10">
         <v>42051</v>
@@ -1694,7 +1881,9 @@
       <c r="J11" s="7">
         <v>4</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="L11" s="18">
         <f>SUM(L12:L14)</f>
         <v>6</v>
@@ -1733,11 +1922,11 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="56"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="11">
         <v>42051</v>
@@ -1745,7 +1934,9 @@
       <c r="J12" s="8">
         <v>1</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="L12" s="19">
         <v>1</v>
       </c>
@@ -1773,11 +1964,11 @@
       <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I13" s="11">
         <v>42051</v>
@@ -1785,7 +1976,9 @@
       <c r="J13" s="8">
         <v>2</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="L13" s="19">
         <v>2</v>
       </c>
@@ -1808,16 +2001,16 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="56"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I14" s="11">
         <v>42051</v>
@@ -1825,7 +2018,9 @@
       <c r="J14" s="8">
         <v>3</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="L14" s="19">
         <v>3</v>
       </c>
@@ -1853,13 +2048,13 @@
       <c r="D15" s="7">
         <v>4</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I15" s="10">
         <v>42055</v>
@@ -1867,7 +2062,9 @@
       <c r="J15" s="7">
         <v>3</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="L15" s="18">
         <f>SUM(L16:L19)</f>
         <v>27</v>
@@ -1906,11 +2103,11 @@
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="57"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I16" s="11">
         <v>42055</v>
@@ -1918,7 +2115,9 @@
       <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" s="19">
         <v>10</v>
       </c>
@@ -1946,11 +2145,11 @@
       <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="56"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I17" s="11">
         <v>42055</v>
@@ -1958,7 +2157,9 @@
       <c r="J17" s="8">
         <v>2</v>
       </c>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="L17" s="19">
         <v>10</v>
       </c>
@@ -1986,11 +2187,11 @@
       <c r="D18" s="8">
         <v>3</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I18" s="11">
         <v>42055</v>
@@ -1998,7 +2199,9 @@
       <c r="J18" s="8">
         <v>3</v>
       </c>
-      <c r="K18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="L18" s="19">
         <v>4</v>
       </c>
@@ -2021,16 +2224,16 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="56"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I19" s="11">
         <v>42055</v>
@@ -2038,7 +2241,9 @@
       <c r="J19" s="8">
         <v>4</v>
       </c>
-      <c r="K19" s="8"/>
+      <c r="K19" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="L19" s="19">
         <v>3</v>
       </c>
@@ -2059,15 +2264,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="G6:G10"/>
     <mergeCell ref="F11:F19"/>
     <mergeCell ref="G11:G19"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E15:E19"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2077,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,7 +2295,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -2109,26 +2314,6 @@
       </c>
       <c r="G1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="40" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2140,15 +2325,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -2158,7 +2343,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Product and Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -411,11 +411,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -457,15 +494,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,7 +530,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -579,11 +637,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="8412160"/>
-        <c:axId val="30762880"/>
+        <c:axId val="6088960"/>
+        <c:axId val="8409472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8412160"/>
+        <c:axId val="6088960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +654,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="30762880"/>
+        <c:crossAx val="8409472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -604,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="30762880"/>
+        <c:axId val="8409472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +677,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8412160"/>
+        <c:crossAx val="6088960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,11 +759,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69959680"/>
-        <c:axId val="69961600"/>
+        <c:axId val="30764032"/>
+        <c:axId val="30787072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69959680"/>
+        <c:axId val="30764032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,7 +776,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69961600"/>
+        <c:crossAx val="30787072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -726,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69961600"/>
+        <c:axId val="30787072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69959680"/>
+        <c:crossAx val="30764032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -823,11 +881,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="36701696"/>
-        <c:axId val="69947776"/>
+        <c:axId val="35255808"/>
+        <c:axId val="35257728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36701696"/>
+        <c:axId val="35255808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,7 +898,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69947776"/>
+        <c:crossAx val="35257728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -848,7 +906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69947776"/>
+        <c:axId val="35257728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36701696"/>
+        <c:crossAx val="35255808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -945,11 +1003,11 @@
         <c:dropLines/>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184632448"/>
-        <c:axId val="184657024"/>
+        <c:axId val="36178560"/>
+        <c:axId val="36607872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184632448"/>
+        <c:axId val="36178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +1020,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184657024"/>
+        <c:crossAx val="36607872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -970,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184657024"/>
+        <c:axId val="36607872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +1043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184632448"/>
+        <c:crossAx val="36178560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="L8:P8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,38 +1513,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="55"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="52"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1513,45 +1571,45 @@
       </c>
     </row>
     <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="L3" s="16">
-        <f>L6+L11+L15</f>
+        <f t="shared" ref="L3:R3" si="0">L6+L11+L15</f>
         <v>40</v>
       </c>
       <c r="M3" s="5">
-        <f>M6+M11+M15</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="N3" s="36">
-        <f>N6+N11+N15</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="O3" s="26">
-        <f>O6+O11+O15</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="P3" s="21">
-        <f>P6+P11+P15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="5">
-        <f>Q6+Q11+Q15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="5">
-        <f>R6+R11+R15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1628,13 +1686,13 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="57">
         <v>1</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="61">
         <v>41967</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1654,27 +1712,27 @@
         <v>7</v>
       </c>
       <c r="M6" s="7">
-        <f t="shared" ref="M6:R6" si="0">SUM(M7:M10)</f>
+        <f t="shared" ref="M6:R6" si="1">SUM(M7:M10)</f>
         <v>6</v>
       </c>
       <c r="N6" s="38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O6" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P6" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1687,9 +1745,9 @@
       <c r="D7" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1733,9 +1791,9 @@
       <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1779,9 +1837,9 @@
       <c r="D9" s="8">
         <v>3</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="56"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1823,9 +1881,9 @@
       <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="56"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1863,15 +1921,11 @@
       <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="41">
-        <v>2</v>
-      </c>
-      <c r="G11" s="42">
-        <v>41981</v>
-      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1889,27 +1943,27 @@
         <v>6</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" ref="M11:R11" si="1">SUM(M12:M14)</f>
+        <f t="shared" ref="M11:R11" si="2">SUM(M12:M14)</f>
         <v>6</v>
       </c>
       <c r="N11" s="38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O11" s="29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="P11" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1922,9 +1976,9 @@
       <c r="D12" s="8">
         <v>1</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1964,9 +2018,9 @@
       <c r="D13" s="8">
         <v>2</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="8" t="s">
         <v>28</v>
       </c>
@@ -2006,9 +2060,9 @@
       <c r="D14" s="8">
         <v>3</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="8" t="s">
         <v>28</v>
       </c>
@@ -2048,11 +2102,15 @@
       <c r="D15" s="7">
         <v>4</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="57">
+        <v>2</v>
+      </c>
+      <c r="G15" s="58">
+        <v>41981</v>
+      </c>
       <c r="H15" s="7" t="s">
         <v>28</v>
       </c>
@@ -2070,27 +2128,27 @@
         <v>27</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" ref="M15:R15" si="2">SUM(M16:M19)</f>
+        <f t="shared" ref="M15:R15" si="3">SUM(M16:M19)</f>
         <v>27</v>
       </c>
       <c r="N15" s="38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="O15" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="P15" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2103,9 +2161,9 @@
       <c r="D16" s="8">
         <v>1</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="8" t="s">
         <v>28</v>
       </c>
@@ -2145,9 +2203,9 @@
       <c r="D17" s="8">
         <v>2</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="8" t="s">
         <v>28</v>
       </c>
@@ -2187,9 +2245,9 @@
       <c r="D18" s="8">
         <v>3</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="8" t="s">
         <v>28</v>
       </c>
@@ -2229,9 +2287,9 @@
       <c r="D19" s="8">
         <v>4</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="8" t="s">
         <v>28</v>
       </c>
@@ -2266,13 +2324,13 @@
   <mergeCells count="9">
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="L1:R1"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="F11:F19"/>
-    <mergeCell ref="G11:G19"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="G6:G14"/>
+    <mergeCell ref="G15:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2325,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -648,6 +648,21 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>t/Tagen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -670,6 +685,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Aufwand/Stunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -682,11 +712,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -770,6 +795,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>t/Tagen</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -792,6 +835,24 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Aufwand/Stunden</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -804,11 +865,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -1014,6 +1070,24 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>t/Tagen</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1036,6 +1110,24 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Aufwand/Stunden</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -1048,11 +1140,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
@@ -1488,7 +1575,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2420,7 @@
     <mergeCell ref="G15:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2383,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
